--- a/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02434794891241856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04325142375696468</v>
+        <v>0.0432514237569647</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0252728714268147</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02638839121323394</v>
+        <v>0.02602907708805337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01055382073707417</v>
+        <v>0.01273221099536997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01130269820920617</v>
+        <v>0.01103048827398972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02722964001191148</v>
+        <v>0.02647303099059924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008774088195073979</v>
+        <v>0.008881877264855068</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0225600796411039</v>
+        <v>0.02262600270201896</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0120165917008468</v>
+        <v>0.01265639991546942</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03654559629977053</v>
+        <v>0.03690502425407778</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02304126160646537</v>
+        <v>0.02152241407924841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0212033275127909</v>
+        <v>0.02121754284609222</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01656936242026397</v>
+        <v>0.0158015254437513</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03528949240705641</v>
+        <v>0.0363481926284864</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08078967478743518</v>
+        <v>0.08216302811483088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0490940368759117</v>
+        <v>0.04896576618186987</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05214410610772605</v>
+        <v>0.05145877805926628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06757741319021585</v>
+        <v>0.06671836705889547</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05122053154775522</v>
+        <v>0.05084313292038543</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07577130232413018</v>
+        <v>0.07665756460403821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06176606736085773</v>
+        <v>0.06314814532080222</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07682426329849872</v>
+        <v>0.07475904165013442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05853052929179471</v>
+        <v>0.05351312072274014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05423128577488968</v>
+        <v>0.05263273454986227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05089100555224375</v>
+        <v>0.04923478468614544</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06432692162748767</v>
+        <v>0.06392499746766021</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02248128796845471</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04754516130967183</v>
+        <v>0.04754516130967184</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03526746363537311</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02247315489130555</v>
+        <v>0.02137106088207365</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0118042583337463</v>
+        <v>0.01047870494491194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006001407077669152</v>
+        <v>0.005638808315588792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01921486806357392</v>
+        <v>0.0202129747215857</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01949779038469638</v>
+        <v>0.02050876351249798</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02938216495023002</v>
+        <v>0.02849453456789659</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0107602750158514</v>
+        <v>0.01110751058322416</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03515481478128121</v>
+        <v>0.03411851364836448</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02371905120863082</v>
+        <v>0.02470643450671972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02400068612494946</v>
+        <v>0.02319225991147762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009912811220621378</v>
+        <v>0.01039679461269734</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03060058960188937</v>
+        <v>0.03056111290428483</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06107034773809612</v>
+        <v>0.05876960213396868</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03964428859949776</v>
+        <v>0.04190933787024476</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02818817575680356</v>
+        <v>0.02475177032830993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05253181708053855</v>
+        <v>0.05636042801863899</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05243930981287602</v>
+        <v>0.05441591950007876</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07106444228701614</v>
+        <v>0.06974554410180336</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04066247806346467</v>
+        <v>0.04399609298568797</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06270493656063351</v>
+        <v>0.06344087320314069</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04907962402943199</v>
+        <v>0.04997851848062342</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04889590238429203</v>
+        <v>0.0488452050538169</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02874213438228191</v>
+        <v>0.02898482389602728</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05307748857631282</v>
+        <v>0.0541665218815564</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02524289648492638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06476578403685926</v>
+        <v>0.06476578403685924</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04094078060918702</v>
@@ -957,7 +957,7 @@
         <v>0.01685659637727622</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09055548890392978</v>
+        <v>0.0905554889039298</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04146007562468119</v>
@@ -969,7 +969,7 @@
         <v>0.02093128645114376</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07842512270566776</v>
+        <v>0.07842512270566775</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02333625469365061</v>
+        <v>0.02379682997626383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03635974971702215</v>
+        <v>0.0371655105030437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01322167055893164</v>
+        <v>0.01286875193531916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04476200409646411</v>
+        <v>0.04573284635002441</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02216589712709316</v>
+        <v>0.02311770310952539</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03049600019232688</v>
+        <v>0.03114262855629621</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006269434436511158</v>
+        <v>0.005792120424584543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06930699032282504</v>
+        <v>0.06743826113353976</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02825461208308061</v>
+        <v>0.02868084524613616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0388025214648488</v>
+        <v>0.03800870075327265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01223054296999674</v>
+        <v>0.01190983746990784</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06370418836576838</v>
+        <v>0.0626115304153867</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06701107265837224</v>
+        <v>0.06816394936788174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0914896020345036</v>
+        <v>0.09299991531642114</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04830034331279297</v>
+        <v>0.04519381417952133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08991344628063262</v>
+        <v>0.09147067165108125</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06610344678151236</v>
+        <v>0.06414792468010562</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07978036942638266</v>
+        <v>0.08052798620817507</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03736874179053101</v>
+        <v>0.03490975937843294</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1178827273633784</v>
+        <v>0.1147155757182684</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05815375787075951</v>
+        <v>0.05973615679324284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07504096497546102</v>
+        <v>0.07501371124268125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0333281161842385</v>
+        <v>0.03463353206299789</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0950819527323296</v>
+        <v>0.09660556035320049</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03065504385357657</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0645179848240708</v>
+        <v>0.06451798482407081</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0446893140652064</v>
@@ -1105,7 +1105,7 @@
         <v>0.02150753743933669</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07200334783777844</v>
+        <v>0.07200334783777843</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01864030844252351</v>
+        <v>0.01958391578357724</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01633302498792614</v>
+        <v>0.01649347951586972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004486980776811914</v>
+        <v>0.004457988665228911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05263966125132803</v>
+        <v>0.05270477791430282</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03257103226090012</v>
+        <v>0.03362280028492631</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02039865781413287</v>
+        <v>0.02030303120226639</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01376407658055991</v>
+        <v>0.01354617321414598</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04857016891271236</v>
+        <v>0.04869326467458038</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03134681908550442</v>
+        <v>0.03093533864597897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02151758659234971</v>
+        <v>0.02178737229491132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01216889224914369</v>
+        <v>0.01171606768022256</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05455905957115853</v>
+        <v>0.05629974810440371</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06196108373601386</v>
+        <v>0.05865012494584478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05523837855822479</v>
+        <v>0.05624285146685612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02898901171471821</v>
+        <v>0.02841845807726465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1205244319996138</v>
+        <v>0.1238437798427416</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07716810466190202</v>
+        <v>0.08028947692688146</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05799384263569129</v>
+        <v>0.06057823404142514</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05920103698183209</v>
+        <v>0.05862388429374796</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08468351781943903</v>
+        <v>0.08569984859524818</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06153160044966693</v>
+        <v>0.06203232156125929</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0487963889077319</v>
+        <v>0.04853858542164959</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03856450094458643</v>
+        <v>0.03764389600415574</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09639955492741235</v>
+        <v>0.09282991087133527</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.009222462111135865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02886298106709216</v>
+        <v>0.02886298106709215</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01020336445965622</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01552472442374654</v>
+        <v>0.01305516922134064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02576588502465796</v>
+        <v>0.02134621429025186</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01424689364002291</v>
+        <v>0.0133276002179591</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02271543998712866</v>
+        <v>0.0238837259063194</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004182116192852153</v>
+        <v>0.004205915485293658</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02615909494891418</v>
+        <v>0.02645106517263184</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01000365445766934</v>
+        <v>0.01095545674715391</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02972400513412662</v>
+        <v>0.03127883135291924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004537676727452609</v>
+        <v>0.004439109068997533</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02405771728608479</v>
+        <v>0.02515772352363077</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06704884280946483</v>
+        <v>0.06529717974760027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09386632838858493</v>
+        <v>0.09372517382969693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02824674107126271</v>
+        <v>0.03124974436225664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05093945407657979</v>
+        <v>0.04942156367218859</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03760676918152442</v>
+        <v>0.03571387956431388</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08042010413451539</v>
+        <v>0.08432845749664598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03967972841796629</v>
+        <v>0.03807003392042519</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05959054793730609</v>
+        <v>0.0637638525680413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03962213752810741</v>
+        <v>0.04010599414113346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07516755400306462</v>
+        <v>0.07388525073537708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02762423243000527</v>
+        <v>0.02730111910386133</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05000688490375093</v>
+        <v>0.04890260965728523</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.05362392617747914</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.09084080541897115</v>
+        <v>0.0908408054189711</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03013846444040159</v>
@@ -1377,7 +1377,7 @@
         <v>0.04069593548801215</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.07570936435700942</v>
+        <v>0.07570936435700941</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02544397926819724</v>
+        <v>0.02539442259415139</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05934712564912009</v>
+        <v>0.06071749244763017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01300805298338257</v>
+        <v>0.01260613179936511</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04364153208855091</v>
+        <v>0.0426953683021868</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003728691104240484</v>
+        <v>0.003737947920167549</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02150382169471762</v>
+        <v>0.02212989340611892</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02885567280169319</v>
+        <v>0.0288124813084862</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06928634808529073</v>
+        <v>0.06924861064530238</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01730768679312826</v>
+        <v>0.01755468118458558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04902073278002324</v>
+        <v>0.04835457996938753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02415554477612467</v>
+        <v>0.02644270263404673</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06007104158237195</v>
+        <v>0.06097131198094227</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07711647216058637</v>
+        <v>0.08004285258130296</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1328663881893372</v>
+        <v>0.1333675069523432</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05067658256832058</v>
+        <v>0.05368154818620657</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08713308098974723</v>
+        <v>0.08481681147467361</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03560273969844217</v>
+        <v>0.03813805134179338</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07409882560371472</v>
+        <v>0.07480846759559774</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09315011389250399</v>
+        <v>0.08948441812819755</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1204801821354495</v>
+        <v>0.122199775463258</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04723544523847965</v>
+        <v>0.04697444280289548</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09633092430336607</v>
+        <v>0.09268892294930274</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06002417804983028</v>
+        <v>0.06300753382671451</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09292342584508444</v>
+        <v>0.09344671295569942</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01995180436118639</v>
+        <v>0.01915533491005945</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0169143069735469</v>
+        <v>0.01820860771769667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02495092285303071</v>
+        <v>0.02237078365074168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04052712599951216</v>
+        <v>0.04133144167220924</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01842019403490409</v>
+        <v>0.01648513798679111</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03558911799714829</v>
+        <v>0.03551294031939317</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02389841245477211</v>
+        <v>0.02483845819990877</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05426920070652001</v>
+        <v>0.05473652301672147</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02074634287020988</v>
+        <v>0.02021858110869055</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03049551251127285</v>
+        <v>0.03026359958968549</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0279524000684311</v>
+        <v>0.02834908653741718</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05283294601686393</v>
+        <v>0.05265116707843579</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05053471737051787</v>
+        <v>0.047721870725565</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04847517831564862</v>
+        <v>0.04787074304583843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05749701941660903</v>
+        <v>0.05520969331603338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07834825274937593</v>
+        <v>0.07854731266259994</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04633686925426537</v>
+        <v>0.04376171210983557</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07212533467193936</v>
+        <v>0.07256545030102787</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05458202281763636</v>
+        <v>0.057178093646864</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0842399709362841</v>
+        <v>0.08705025745803598</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04134574184682415</v>
+        <v>0.03999711771618766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05483938477406202</v>
+        <v>0.05360050673678688</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04924701102352137</v>
+        <v>0.05071145029867315</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07792930478064197</v>
+        <v>0.07750315619432953</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0346648397039279</v>
+        <v>0.03471702752454699</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0203763817809158</v>
+        <v>0.0211034365404996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01791396647483325</v>
+        <v>0.0182596722110799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01108618899364182</v>
+        <v>0.01103443040004009</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02174413314232953</v>
+        <v>0.02142948292835341</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02976819275482282</v>
+        <v>0.0296171452729336</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01877208737726958</v>
+        <v>0.0177997350192779</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02554288965148739</v>
+        <v>0.0260114291629783</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03154214247113578</v>
+        <v>0.03151782833520578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0290850722399511</v>
+        <v>0.02948900545627288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02027645793410651</v>
+        <v>0.02121334849026412</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0209848740740214</v>
+        <v>0.02096952303305907</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06617155771414378</v>
+        <v>0.06715106128760365</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04579575367402548</v>
+        <v>0.04646056665680767</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04301731950160479</v>
+        <v>0.04544725036158139</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02902822669541424</v>
+        <v>0.02815459067986091</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04776069163610833</v>
+        <v>0.0474114241486761</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05933550801118047</v>
+        <v>0.06022930532294615</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04602139213289845</v>
+        <v>0.04307502517638778</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04816675910020276</v>
+        <v>0.04768123751587496</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05089923561973154</v>
+        <v>0.05095059555165483</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04830477662207502</v>
+        <v>0.04869666514343872</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03873409123062301</v>
+        <v>0.03872775748640263</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03532236808843454</v>
+        <v>0.03537510505231954</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.02426891732838432</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.04570643588270919</v>
+        <v>0.0457064358827092</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.03149511080554573</v>
@@ -1785,7 +1785,7 @@
         <v>0.02730344537369913</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.05225792688475092</v>
+        <v>0.05225792688475093</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03373922073660175</v>
+        <v>0.03357690454450727</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03210093829164247</v>
+        <v>0.0321006012277919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01911958379310378</v>
+        <v>0.01901544782454449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03897463266911583</v>
+        <v>0.03904740531888323</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02607260104770297</v>
+        <v>0.02626150237286513</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03941228291114478</v>
+        <v>0.03797890219518407</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02453076623677669</v>
+        <v>0.02455421156159478</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05224539931051662</v>
+        <v>0.05239625899166379</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03112132117160688</v>
+        <v>0.03177189526909677</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03720784673973179</v>
+        <v>0.03749390034319158</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02340260379666241</v>
+        <v>0.02328922408246972</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.04797310342621788</v>
+        <v>0.04755884274873769</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04749003906989657</v>
+        <v>0.04808914735968157</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04538938216964468</v>
+        <v>0.04554216572735008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02995826607784161</v>
+        <v>0.02973837431043755</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05357200172962805</v>
+        <v>0.05368903033136836</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03817697637882118</v>
+        <v>0.03850361494860776</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05357967054583497</v>
+        <v>0.05322361371421071</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0375594011003101</v>
+        <v>0.03701468724247858</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06448458174256537</v>
+        <v>0.06525699361820327</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04036551442742366</v>
+        <v>0.0406845147327413</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04799993880928343</v>
+        <v>0.04739734904559726</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03179842274910863</v>
+        <v>0.0312266099719661</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.05710912335292595</v>
+        <v>0.05702969311273928</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7204</v>
+        <v>7106</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3111</v>
+        <v>3753</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3320</v>
+        <v>3240</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8682</v>
+        <v>8441</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2280</v>
+        <v>2308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6480</v>
+        <v>6499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3469</v>
+        <v>3654</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11551</v>
+        <v>11664</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12277</v>
+        <v>11468</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12340</v>
+        <v>12348</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9651</v>
+        <v>9204</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22406</v>
+        <v>23078</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22056</v>
+        <v>22431</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14470</v>
+        <v>14432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15318</v>
+        <v>15117</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21547</v>
+        <v>21273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13308</v>
+        <v>13210</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21765</v>
+        <v>22020</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17832</v>
+        <v>18231</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24281</v>
+        <v>23628</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31187</v>
+        <v>28514</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31562</v>
+        <v>30631</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29642</v>
+        <v>28677</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40842</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11081</v>
+        <v>10538</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5955</v>
+        <v>5286</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2994</v>
+        <v>2813</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10196</v>
+        <v>10726</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9826</v>
+        <v>10335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15389</v>
+        <v>14924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5618</v>
+        <v>5800</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19212</v>
+        <v>18646</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23648</v>
+        <v>24633</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>24678</v>
+        <v>23847</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10121</v>
+        <v>10615</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>32961</v>
+        <v>32919</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30112</v>
+        <v>28978</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19999</v>
+        <v>21142</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14062</v>
+        <v>12348</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27876</v>
+        <v>29907</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26427</v>
+        <v>27423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37221</v>
+        <v>36530</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21232</v>
+        <v>22973</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34268</v>
+        <v>34670</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48934</v>
+        <v>49830</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>50276</v>
+        <v>50224</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29346</v>
+        <v>29594</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57172</v>
+        <v>58345</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7441</v>
+        <v>7588</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11782</v>
+        <v>12043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4202</v>
+        <v>4090</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14117</v>
+        <v>14423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7435</v>
+        <v>7754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10400</v>
+        <v>10620</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2108</v>
+        <v>1948</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24613</v>
+        <v>23950</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18486</v>
+        <v>18765</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>25806</v>
+        <v>25278</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8000</v>
+        <v>7791</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42715</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21366</v>
+        <v>21734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29647</v>
+        <v>30136</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15351</v>
+        <v>14364</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28357</v>
+        <v>28848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22172</v>
+        <v>21516</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27207</v>
+        <v>27462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12567</v>
+        <v>11740</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>41864</v>
+        <v>40740</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38048</v>
+        <v>39083</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49907</v>
+        <v>49889</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21801</v>
+        <v>22655</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>63754</v>
+        <v>64776</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6686</v>
+        <v>7024</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6108</v>
+        <v>6168</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19642</v>
+        <v>19667</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12061</v>
+        <v>12451</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7934</v>
+        <v>7897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5331</v>
+        <v>5246</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20495</v>
+        <v>20547</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22851</v>
+        <v>22551</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16416</v>
+        <v>16622</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>9192</v>
+        <v>8850</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>43380</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22224</v>
+        <v>21036</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20658</v>
+        <v>21034</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10670</v>
+        <v>10460</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44973</v>
+        <v>46212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28576</v>
+        <v>29731</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22557</v>
+        <v>23562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22928</v>
+        <v>22704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35733</v>
+        <v>36162</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44855</v>
+        <v>45220</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37228</v>
+        <v>37032</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29129</v>
+        <v>28434</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>76648</v>
+        <v>73810</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3156</v>
+        <v>2654</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5478</v>
+        <v>4539</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2923</v>
+        <v>2735</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4988</v>
+        <v>5245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5988</v>
+        <v>6055</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4111</v>
+        <v>4502</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12847</v>
+        <v>13519</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1946</v>
+        <v>1904</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10443</v>
+        <v>10921</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13632</v>
+        <v>13275</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19958</v>
+        <v>19928</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5966</v>
+        <v>6601</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10452</v>
+        <v>10140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7810</v>
+        <v>7417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17660</v>
+        <v>18518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8636</v>
+        <v>8285</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13641</v>
+        <v>14597</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16284</v>
+        <v>16483</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>32488</v>
+        <v>31934</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11847</v>
+        <v>11708</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21708</v>
+        <v>21229</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6891</v>
+        <v>6877</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16260</v>
+        <v>16635</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3401</v>
+        <v>3296</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11814</v>
+        <v>11558</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6022</v>
+        <v>6197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7851</v>
+        <v>7839</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18274</v>
+        <v>18264</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9501</v>
+        <v>9637</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>27158</v>
+        <v>26789</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12889</v>
+        <v>14109</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>32105</v>
+        <v>32587</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20884</v>
+        <v>21676</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36403</v>
+        <v>36540</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13251</v>
+        <v>14037</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23588</v>
+        <v>22961</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9903</v>
+        <v>10608</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20750</v>
+        <v>20949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25344</v>
+        <v>24346</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>31777</v>
+        <v>32230</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>25930</v>
+        <v>25787</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>53368</v>
+        <v>51351</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32027</v>
+        <v>33618</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>49664</v>
+        <v>49943</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12271</v>
+        <v>11781</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>11211</v>
+        <v>12068</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16356</v>
+        <v>14664</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>29167</v>
+        <v>29746</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11712</v>
+        <v>10482</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24694</v>
+        <v>24641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16472</v>
+        <v>17120</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>41899</v>
+        <v>42260</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>25951</v>
+        <v>25291</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>41371</v>
+        <v>41057</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>37590</v>
+        <v>38123</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>78813</v>
+        <v>78542</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31080</v>
+        <v>29350</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32129</v>
+        <v>31728</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>37690</v>
+        <v>36190</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>56386</v>
+        <v>56529</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29463</v>
+        <v>27825</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>50044</v>
+        <v>50350</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>37621</v>
+        <v>39411</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>65038</v>
+        <v>67208</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>51718</v>
+        <v>50031</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>74397</v>
+        <v>72717</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>66226</v>
+        <v>68195</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>116251</v>
+        <v>115615</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>25753</v>
+        <v>25792</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15875</v>
+        <v>16442</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>13948</v>
+        <v>14217</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8848</v>
+        <v>8806</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17037</v>
+        <v>16790</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>24465</v>
+        <v>24341</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>15509</v>
+        <v>14706</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>21235</v>
+        <v>21624</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>48147</v>
+        <v>48110</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>46564</v>
+        <v>47210</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>32539</v>
+        <v>34042</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>34193</v>
+        <v>34168</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>49160</v>
+        <v>49887</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35679</v>
+        <v>36197</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>33493</v>
+        <v>35384</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>23167</v>
+        <v>22469</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>37421</v>
+        <v>37147</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>48765</v>
+        <v>49500</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>38021</v>
+        <v>35587</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>40043</v>
+        <v>39639</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>77694</v>
+        <v>77772</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>77334</v>
+        <v>77961</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>62159</v>
+        <v>62148</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>57554</v>
+        <v>57640</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>110518</v>
+        <v>109987</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>109969</v>
+        <v>109968</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>64726</v>
+        <v>64373</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>137646</v>
+        <v>137903</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>87986</v>
+        <v>88623</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>140162</v>
+        <v>135065</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>86829</v>
+        <v>86912</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>195174</v>
+        <v>195737</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>206966</v>
+        <v>211293</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>259786</v>
+        <v>261783</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>162060</v>
+        <v>161275</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>348639</v>
+        <v>345628</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>155561</v>
+        <v>157524</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>155491</v>
+        <v>156015</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>101418</v>
+        <v>100674</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>189199</v>
+        <v>189612</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>128834</v>
+        <v>129936</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>190546</v>
+        <v>189280</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>132945</v>
+        <v>131016</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>240896</v>
+        <v>243781</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>268443</v>
+        <v>270565</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>335137</v>
+        <v>330930</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>220201</v>
+        <v>216241</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>415034</v>
+        <v>414456</v>
       </c>
     </row>
     <row r="40">
